--- a/PyThon/PDFRead/PDFRead/output.xlsx
+++ b/PyThon/PDFRead/PDFRead/output.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,172 +447,505 @@
       <c r="D1" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>5</v>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1. Power, WirelessCharging面板信号追加</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2023/10/30</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>iAuto chenxi</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2. 自动回复功能增加开关控制(默认关闭)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>3. 各功能面板追加所有信号一键启停功能(默认关闭)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>4. 工程保存模式从目录保存改为工程文件(.psm文件)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>5. T系Meter连携COM通信发布</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>6. 修复部分设定范围与DBC不符问题</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>7. 修复了只连接1路CAN时造成的刷新异常问题</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>8. 硬件环境配置手顺追加多个CAN设备通路配置手顺</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>9. 用户手册同步更新</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1. 基于基线1.52通信式样对应</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2023/11/08</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>iAuto chenxi</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>1.2</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2. COM通信变种CAN数据信号对应支持</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>3. 部分CAN面板信号取值范围及枚举值更新</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1. 基线1.52后部分画面信号追加、自动回复追加</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2023/12/1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>iAuto chenxi</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>1.2.1</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Toyota系COM通信画面初期値问题修正</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2. 跨画面Message与信号值同步</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>3. Beta版本号追加有效期显示</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1. SomeIp 仿真Detail刷新优化、Trace解析优化</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2023/12/29</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>iAuto chenxi</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>1.2.2</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2. SomeIp Port逻辑定制，以支持不关防火墙进行通信</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>3. CAN Trace支持启动暂停，暂停及离线模式下支持排序</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>4. CAN Trace支持双击弹窗，显示及更新内置信号的值</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>5. CAN 面板新增生效值颜色提示</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>6. CAN 面板页面内检索功能</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>1. CAN 面板新增全局检索功能</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2024/1/12</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>iAuto chenxi</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>1.3</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2. COM信号面板初期値问题修正</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr"/>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>3. 基于式样基线2.0的面板信号追加</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>韩</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Abcd</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>`</t>
-        </is>
-      </c>
+          <t>24MM PanelSim ReleaseNote</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
-          <t>前</t>
+          <t>1. COM自动回复功能追加</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>efg</t>
+          <t>2024/1/25</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>#</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>,</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>_</t>
+          <t>iAuto chenxi</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>困</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>hijk</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>$</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>。</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+          <t>1.3.1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+      <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr">
         <is>
-          <t>不</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>jjj</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>&amp;</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>|</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
+          <t>2. 基于式样基线2.0的自动回复对应</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+      <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr">
         <is>
-          <t>困</t>
+          <t>1. CheckSum信号字段的自动计算对应</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>lll</t>
+          <t>2024/3/5</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>(</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>\</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
+          <t>iAuto chenxi</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1.4</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2. 基线2.0的信号表及自动回复机能更新</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>3. 默认DBC更新，L系旧版本MCU对应DBC备份文件提供</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>4. 以太网Someip协议默认容器序列化参数变更</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>5. DCM仿真用arxml文件更新</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>iAUTO (Shanghai) Co., LTD.</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
